--- a/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
+++ b/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d0db0d17cdb3e8e/Desktop/study/HKBU_CS(CST) - 2024_2026/Yr4_2025-26/sem1/GCAP3226_Empowering Citizens through Data Participatory Policy Analysis for HK/Green/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{6D5893FC-8C4B-4075-A716-390202ECF751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAF872C4-E1D5-4835-8C2C-60CBEBC66C46}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DF6E57-C26B-3F4A-A8A0-E22E12BADFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="HK MSW Volume and Recycling Rat" sheetId="2" r:id="rId1"/>
@@ -202,22 +202,23 @@
     <t>GREEN$ ePIS total operating cost</t>
   </si>
   <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>HK total population (mid-year)</t>
+  </si>
+  <si>
+    <t>Male population (mid-year)</t>
+  </si>
+  <si>
+    <t>Female population (mid-year)</t>
+  </si>
+  <si>
     <t>HK GDP per capita</t>
-  </si>
-  <si>
-    <t>2016-17</t>
-  </si>
-  <si>
-    <t>2015-16</t>
-  </si>
-  <si>
-    <t>HK total population (mid-year)</t>
-  </si>
-  <si>
-    <t>Male population (mid-year)</t>
-  </si>
-  <si>
-    <t>Female population (mid-year)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -225,35 +226,35 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#0.0;\-#0.0;0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="172" formatCode="#,##0.0"/>
+    <numFmt numFmtId="176" formatCode="#0.0;\-#0.0;0.0"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.5"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,6 +269,13 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -324,13 +332,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,24 +347,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -367,46 +374,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{D948AE7C-2F01-43B5-A859-166431145FCF}"/>
   </cellStyles>
   <dxfs count="55">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -424,7 +395,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -450,7 +421,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -476,7 +447,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -502,7 +473,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -528,7 +499,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -554,7 +525,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -580,7 +551,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -606,7 +577,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -632,7 +603,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -658,7 +629,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -684,7 +655,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -710,7 +681,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -736,7 +707,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -762,7 +733,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -788,7 +759,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -814,7 +785,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -840,7 +811,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -866,7 +837,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -951,7 +922,43 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -1088,7 +1095,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>313587</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>64649</xdr:rowOff>
+      <xdr:rowOff>64648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1132,7 +1139,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>1263806</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>31314</xdr:rowOff>
+      <xdr:rowOff>31313</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1212,10 +1219,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F8FB192-AE45-4E7F-BCCA-6AD124916ACA}" name="HK_MSW_recycled" displayName="HK_MSW_recycled" ref="A1:V23" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="A1:V23" xr:uid="{5F8FB192-AE45-4E7F-BCCA-6AD124916ACA}"/>
@@ -1246,59 +1249,59 @@
     <tableColumn id="13" xr3:uid="{A88208ED-4273-4F7B-B729-1F57C59B0ADA}" name="HK total population (mid-year)" dataDxfId="36"/>
     <tableColumn id="14" xr3:uid="{F758DA0D-C083-4BE8-B121-391782D3CCC2}" name="Male population (mid-year)" dataDxfId="35"/>
     <tableColumn id="15" xr3:uid="{5F3F1424-1D8E-43AA-B28F-40D844A82312}" name="Female population (mid-year)" dataDxfId="34"/>
-    <tableColumn id="18" xr3:uid="{002C104B-995C-41C7-B0AF-B3BABB5700F4}" name="HK GDP" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8FF64EC3-C8B5-4C79-A54F-374F3141570D}" name="HK GDP per capita" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{002C104B-995C-41C7-B0AF-B3BABB5700F4}" name="HK GDP" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{8FF64EC3-C8B5-4C79-A54F-374F3141570D}" name="HK GDP per capita" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EECEE34D-5CAF-40FC-813F-8E28DA8BB275}" name="GreenCommunity" displayName="GreenCommunity" ref="A1:G12" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EECEE34D-5CAF-40FC-813F-8E28DA8BB275}" name="GreenCommunity" displayName="GreenCommunity" ref="A1:G12" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="A1:G12" xr:uid="{EECEE34D-5CAF-40FC-813F-8E28DA8BB275}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D7A131A2-11DC-423E-864D-2125977DB61B}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{E1673EC3-6484-4014-9791-ACF6FA2E3D23}" name="G@C total operating cost" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3623AB12-BB87-46C4-95C9-14DD1B4714E6}" name="G@C station total operating cost" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{30C9156D-FEBB-42F4-BC3A-92CCEEEC5FCB}" name="G@C store total operating cost" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{BD124BDA-B194-4A10-B5AA-A92F26E8288E}" name="G@C store rental cost" dataDxfId="6" totalsRowDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{CAA20467-C652-4846-A648-528B66E13E29}" name="GREEN$ ePIS total operating cost" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{E3054813-7322-49A4-A61E-3818B00DA182}" name="GREEN$ total gift procurement cost" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E1673EC3-6484-4014-9791-ACF6FA2E3D23}" name="G@C total operating cost" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{3623AB12-BB87-46C4-95C9-14DD1B4714E6}" name="G@C station total operating cost" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{30C9156D-FEBB-42F4-BC3A-92CCEEEC5FCB}" name="G@C store total operating cost" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{BD124BDA-B194-4A10-B5AA-A92F26E8288E}" name="G@C store rental cost" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{CAA20467-C652-4846-A648-528B66E13E29}" name="GREEN$ ePIS total operating cost" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{E3054813-7322-49A4-A61E-3818B00DA182}" name="GREEN$ total gift procurement cost" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50BE9075-A367-4881-BE5E-A0B2618908C7}" name="Table3" displayName="Table3" ref="A1:S22" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50BE9075-A367-4881-BE5E-A0B2618908C7}" name="Table3" displayName="Table3" ref="A1:S22" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" dataCellStyle="Normal 2">
   <autoFilter ref="A1:S22" xr:uid="{50BE9075-A367-4881-BE5E-A0B2618908C7}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{A1741669-16D6-46D7-A05D-2A8C8611F39C}" name="Year (mid)" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{6040211C-F122-48FB-A48C-F4A8E0D93BA6}" name="0 - 4" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{D71342E3-A66D-4D94-B8B0-3E07294DD904}" name="5 - 9" dataDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{08406258-5360-480A-BB0E-5C9FD5F37676}" name="10 - 14" dataDxfId="27" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{062D5F29-935C-4B56-AD70-310849028E06}" name="15 - 19" dataDxfId="26" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{3FEBEE22-5121-4106-90A1-BDD15540387B}" name="20 - 24" dataDxfId="25" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{4058023F-8BEC-42A5-8130-59FC700602F3}" name="25 - 29" dataDxfId="24" dataCellStyle="Normal 2"/>
-    <tableColumn id="8" xr3:uid="{C6B2A792-A936-4951-AFDA-5ABC94136E00}" name="30 - 34" dataDxfId="23" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{A9458A9A-FBDD-46CF-AF40-AF0254D2E6E7}" name="35 - 39" dataDxfId="22" dataCellStyle="Normal 2"/>
-    <tableColumn id="10" xr3:uid="{1CDEFDDB-BD9E-4E36-9EE1-CFE1F2F83FF7}" name="40 - 44" dataDxfId="21" dataCellStyle="Normal 2"/>
-    <tableColumn id="11" xr3:uid="{3E57C474-4F5A-4955-8FF9-9BC4DFA09ED8}" name="45 - 49" dataDxfId="20" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" xr3:uid="{EE3E8644-3872-4036-9CDB-FE4A2E7946D1}" name="50 - 54" dataDxfId="19" dataCellStyle="Normal 2"/>
-    <tableColumn id="13" xr3:uid="{9DD64F0F-1592-4282-9BD0-516C5682AF53}" name="55 - 59" dataDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="14" xr3:uid="{E4ABC581-8006-4292-A791-5B8D1AD42A95}" name="60 - 64" dataDxfId="17" dataCellStyle="Normal 2"/>
-    <tableColumn id="15" xr3:uid="{6714FB0F-3158-4340-9CA6-E762D76D5993}" name="65 - 69" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="16" xr3:uid="{B1639D5F-C5A3-4480-9BBD-902AB047A575}" name="70 - 74" dataDxfId="15" dataCellStyle="Normal 2"/>
-    <tableColumn id="17" xr3:uid="{CD6EFDD7-31C5-4ACE-B2E7-B6B9BE535FD0}" name="75 - 79" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="18" xr3:uid="{37535872-31D7-4C23-A914-4CB1F8FCB138}" name="80 - 84" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="19" xr3:uid="{B2B8EC09-8630-4FF0-89D9-EA848262B795}" name="≥ 85" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{A1741669-16D6-46D7-A05D-2A8C8611F39C}" name="Year (mid)" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{6040211C-F122-48FB-A48C-F4A8E0D93BA6}" name="0 - 4" dataDxfId="17" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{D71342E3-A66D-4D94-B8B0-3E07294DD904}" name="5 - 9" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{08406258-5360-480A-BB0E-5C9FD5F37676}" name="10 - 14" dataDxfId="15" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{062D5F29-935C-4B56-AD70-310849028E06}" name="15 - 19" dataDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{3FEBEE22-5121-4106-90A1-BDD15540387B}" name="20 - 24" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{4058023F-8BEC-42A5-8130-59FC700602F3}" name="25 - 29" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{C6B2A792-A936-4951-AFDA-5ABC94136E00}" name="30 - 34" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{A9458A9A-FBDD-46CF-AF40-AF0254D2E6E7}" name="35 - 39" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="10" xr3:uid="{1CDEFDDB-BD9E-4E36-9EE1-CFE1F2F83FF7}" name="40 - 44" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="11" xr3:uid="{3E57C474-4F5A-4955-8FF9-9BC4DFA09ED8}" name="45 - 49" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{EE3E8644-3872-4036-9CDB-FE4A2E7946D1}" name="50 - 54" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{9DD64F0F-1592-4282-9BD0-516C5682AF53}" name="55 - 59" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="14" xr3:uid="{E4ABC581-8006-4292-A791-5B8D1AD42A95}" name="60 - 64" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="15" xr3:uid="{6714FB0F-3158-4340-9CA6-E762D76D5993}" name="65 - 69" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="16" xr3:uid="{B1639D5F-C5A3-4480-9BBD-902AB047A575}" name="70 - 74" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="17" xr3:uid="{CD6EFDD7-31C5-4ACE-B2E7-B6B9BE535FD0}" name="75 - 79" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="18" xr3:uid="{37535872-31D7-4C23-A914-4CB1F8FCB138}" name="80 - 84" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="19" xr3:uid="{B2B8EC09-8630-4FF0-89D9-EA848262B795}" name="≥ 85" dataDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1617,39 +1620,39 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.06640625" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" customWidth="1"/>
     <col min="4" max="4" width="12.19921875" customWidth="1"/>
     <col min="5" max="5" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="17.3984375" customWidth="1"/>
     <col min="8" max="8" width="17.19921875" customWidth="1"/>
-    <col min="9" max="9" width="16.265625" customWidth="1"/>
-    <col min="10" max="10" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.9296875" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.06640625" customWidth="1"/>
-    <col min="14" max="15" width="13.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.86328125" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="10" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="13.3984375" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="15" width="13.3984375" customWidth="1"/>
+    <col min="16" max="16" width="15.796875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
     <col min="18" max="18" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.06640625" customWidth="1"/>
-    <col min="20" max="21" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="34" width="28.06640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="21" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="34" width="28" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="31.46484375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="31.3984375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="25.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="81" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1702,1428 +1705,1428 @@
         <v>15</v>
       </c>
       <c r="R1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A2" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="11">
         <v>2004</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5704000</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <f>ROUND((9288*366), -3)</f>
         <v>3399000</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>2305000</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.40410238429172513</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="13">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="12">
         <f>HK_MSW_recycled[[#This Row],[Male population (mid-year)]]+HK_MSW_recycled[[#This Row],[Female population (mid-year)]]</f>
         <v>6882600</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="12">
         <v>3315500</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="12">
         <v>3567100</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="12">
         <v>1316949</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="12">
         <v>194140</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A3" s="12">
+    <row r="3" spans="1:22">
+      <c r="A3" s="11">
         <v>2005</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>6017000</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <f>ROUND((9377*365), -3)</f>
         <v>3423000</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>2594000</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.43111184975901612</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3461000</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <f>ROUND((6828*365), -3)</f>
         <v>2492000</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>969000</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="13">
+      <c r="J3" s="20"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="12">
         <v>6813200</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="12">
         <v>3264000</v>
       </c>
-      <c r="T3" s="13">
+      <c r="T3" s="12">
         <v>3549200</v>
       </c>
-      <c r="U3" s="13">
+      <c r="U3" s="12">
         <v>1412125</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="12">
         <v>207263</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A4" s="12">
+    <row r="4" spans="1:22">
+      <c r="A4" s="11">
         <v>2006</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>6228000</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <f>ROUND((9279*365), -3)</f>
         <v>3387000</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>2841000</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.45616570327552985</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3560000</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <f>ROUND((6634*365), -3)</f>
         <v>2421000</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>1139000</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>0.32</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="13">
+      <c r="J4" s="20"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="12">
         <v>6857100</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="12">
         <v>3270100</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="12">
         <v>3587000</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="12">
         <v>1503351</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="12">
         <v>219240</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A5" s="12">
+    <row r="5" spans="1:22">
+      <c r="A5" s="11">
         <v>2007</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>6163000</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <f>ROUND((9184*365), -3)</f>
         <v>3352000</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>2811000</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.45610903780626316</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3371000</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <f>ROUND((6372*365), -3)</f>
         <v>2326000</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>1045000</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>0.31</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="13">
+      <c r="J5" s="20"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="12">
         <v>6925900</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="12">
         <v>3287400</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="12">
         <v>3638500</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="12">
         <v>1650756</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="12">
         <v>238676</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A6" s="12">
+    <row r="6" spans="1:22">
+      <c r="A6" s="11">
         <v>2008</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>6445000</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <f>ROUND((9021*366), -3)</f>
         <v>3302000</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>3143000</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.48766485647788982</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3226000</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f>ROUND((6081*366), -3)</f>
         <v>2226000</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>1000000</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>0.31</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="13">
+      <c r="J6" s="20"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="12">
         <v>6977700</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="12">
         <v>3297500</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="12">
         <v>3680200</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="12">
         <v>1707487</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="12">
         <v>245406</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A7" s="12">
+    <row r="7" spans="1:22">
+      <c r="A7" s="11">
         <v>2009</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>6452000</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <f>ROUND((8963*365), -3)</f>
         <v>3271000</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>3181000</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.49302541847489151</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3377000</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <f>ROUND((6015*365), -3)</f>
         <v>2195000</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>1182000</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <v>0.35</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="13">
+      <c r="J7" s="20"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="12">
         <v>7003700</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="12">
         <v>3296200</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="12">
         <v>3707500</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="12">
         <v>1659245</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="12">
         <v>237960</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A8" s="12">
+    <row r="8" spans="1:22">
+      <c r="A8" s="11">
         <v>2010</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>6930000</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <f>ROUND((9114*365), -3)</f>
         <v>3327000</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>3603000</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.51991341991341988</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3732000</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f>ROUND((6135*365), -3)</f>
         <v>2239000</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>1493000</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>0.4</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="13">
+      <c r="J8" s="20"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="12">
         <v>7067800</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="12">
         <v>3310500</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="12">
         <v>3757300</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="12">
         <v>1776332</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V8" s="12">
         <v>252887</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A9" s="12">
+    <row r="9" spans="1:22">
+      <c r="A9" s="11">
         <v>2011</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>6303000</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <f>ROUND((8996*365), -3)</f>
         <v>3284000</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <f>ROUND((3019300), -3)</f>
         <v>3019000</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.47897826431857843</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3516000</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <f>ROUND((5973*365), -3)</f>
         <v>2180000</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>1336000</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>0.38</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="13">
+      <c r="J9" s="20"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="12">
         <v>7071600</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="12">
         <v>3303000</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="12">
         <v>3768600</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="12">
         <v>1934430</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V9" s="12">
         <v>273549</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A10" s="12">
+    <row r="10" spans="1:22">
+      <c r="A10" s="11">
         <v>2012</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5559000</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <f>ROUND((9278*366), -3)</f>
         <v>3396000</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <f>ROUND((2162800), -3)</f>
         <v>2163000</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.38909875876956285</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3196000</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <f>ROUND((6286*366), -3)</f>
         <v>2301000</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>895000</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="13">
+      <c r="J10" s="20"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="12">
         <v>7154600</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="12">
         <v>3327300</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="12">
         <v>3827300</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="12">
         <v>2037059</v>
       </c>
-      <c r="V10" s="13">
+      <c r="V10" s="12">
         <v>284899</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A11" s="12">
+    <row r="11" spans="1:22">
+      <c r="A11" s="11">
         <v>2013</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5494000</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <f>ROUND((9547*365), -3)</f>
         <v>3485000</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <f>ROUND((2008700), -3)</f>
         <v>2009000</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.36567164179104478</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3054000</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <f>ROUND((6359*365), -3)</f>
         <v>2321000</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>733000</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>0.24</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="13">
+      <c r="J11" s="20"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="12">
         <v>7187500</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="12">
         <v>3330700</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="12">
         <v>3856800</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="12">
         <v>2138305</v>
       </c>
-      <c r="V11" s="13">
+      <c r="V11" s="12">
         <v>297860</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A12" s="12">
+    <row r="12" spans="1:22">
+      <c r="A12" s="11">
         <v>2014</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5623000</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <f>ROUND((9782*365), -3)</f>
         <v>3570000</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <f>ROUND((2053200), -3)</f>
         <v>2053000</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.36510759381113284</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3166000</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <f>ROUND((6418*365), -3)</f>
         <v>2343000</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>823000</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>0.26</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="13">
+      <c r="J12" s="20"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="12">
         <v>7241700</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="12">
         <v>3345100</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="12">
         <v>3896600</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="12">
         <v>2260005</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="12">
         <v>312609</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A13" s="12">
+    <row r="13" spans="1:22">
+      <c r="A13" s="11">
         <v>2015</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5620000</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <f>ROUND((10159*365), -3)</f>
         <v>3708000</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <f>ROUND((1912300), -3)</f>
         <v>1912000</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.34021352313167258</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3196000</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>2397000</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>799000</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>0.25</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <f>118.7+40.8</f>
         <v>159.5</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <f>HK_MSW_recycled[[#This Row],[G@C recyclables collection volume (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>8.3420502092050212E-5</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <v>2</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>2</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="12">
         <v>0</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="12">
         <v>0</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="12">
         <f>12940+18447</f>
         <v>31387</v>
       </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="13">
+      <c r="Q13" s="17"/>
+      <c r="R13" s="12">
         <v>7291300</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="12">
         <v>3365600</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="12">
         <v>3925700</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="12">
         <v>2398280</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="12">
         <v>328924</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A14" s="12">
+    <row r="14" spans="1:22">
+      <c r="A14" s="11">
         <v>2016</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5819000</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <f>ROUND((10345*366), -3)</f>
         <v>3786000</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <f>ROUND((2032800), -3)</f>
         <v>2033000</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.34937274445781064</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3078000</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <f>ROUND((6391*366), -3)</f>
         <v>2339000</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>739000</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>0.24</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="14">
         <f>310+290</f>
         <v>600</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <f>HK_MSW_recycled[[#This Row],[G@C recyclables collection volume (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>2.9513034923757994E-4</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <v>2</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <v>2</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="12">
         <v>0</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="12">
         <v>0</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="12">
         <f>34526+124933</f>
         <v>159459</v>
       </c>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="13">
+      <c r="Q14" s="17"/>
+      <c r="R14" s="12">
         <v>7336600</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="12">
         <v>3375400</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="12">
         <v>3961200</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="12">
         <v>2490598</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="12">
         <v>339476</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A15" s="12">
+    <row r="15" spans="1:22">
+      <c r="A15" s="11">
         <v>2017</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5749000</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <f>ROUND((10733*365), -3)</f>
         <v>3918000</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <f>ROUND((1830600), -3)</f>
         <v>1831000</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.31849017220386155</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3035000</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <f>ROUND((6404*365), -3)</f>
         <v>2337000</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>698000</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>0.23</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="14">
         <f>415+395+290+290+17</f>
         <v>1407</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <f>HK_MSW_recycled[[#This Row],[G@C recyclables collection volume (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>7.684325505188422E-4</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <v>5</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>5</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <v>0</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <v>0</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="12">
         <f>33982+182526+32609+29580+9213</f>
         <v>287910</v>
       </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="13">
+      <c r="Q15" s="17"/>
+      <c r="R15" s="12">
         <v>7391700</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="12">
         <v>3392500</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="12">
         <v>3999200</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="12">
         <v>2659611</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V15" s="12">
         <v>359737</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A16" s="12">
+    <row r="16" spans="1:22">
+      <c r="A16" s="11">
         <v>2018</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5949000</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <f>ROUND((11428*365), -3)</f>
         <v>4171000</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <f>ROUND((1777600), -3)</f>
         <v>1778000</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.29887376029584806</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3101000</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <f>ROUND((6712*365), -3)</f>
         <v>2450000</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>651000</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>0.21</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="14">
         <v>2100</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <f>HK_MSW_recycled[[#This Row],[G@C recyclables collection volume (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>1.1811023622047244E-3</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <v>7</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <v>7</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="12">
         <v>0</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="12">
         <v>0</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="12">
         <v>320192</v>
       </c>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="13">
+      <c r="Q16" s="17"/>
+      <c r="R16" s="12">
         <v>7451000</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="12">
         <v>3410300</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="12">
         <v>4040700</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="12">
         <v>2835429</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V16" s="12">
         <v>380462</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A17" s="12">
+    <row r="17" spans="1:22">
+      <c r="A17" s="11">
         <v>2019</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5675000</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <f>ROUND((11057*365), -3)</f>
         <v>4036000</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <f>ROUND((4491*365), -3)</f>
         <v>1639000</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.28881057268722465</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>2953000</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <f>ROUND((6554*365), -3)</f>
         <v>2392000</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>561000</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>0.19</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="14">
         <v>2800</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <f>HK_MSW_recycled[[#This Row],[G@C recyclables collection volume (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>1.7083587553386212E-3</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <v>8</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="12">
         <v>8</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="12">
         <v>0</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="12">
         <v>0</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <f>8423+48972+8853+6126+7090+29626+3555+7729+55800+7981+8328+8305+36872+1894+10229+57426+7186+6694+8029+37478+2436+11324+58211+7641+6112+9109+33999+1507+1565</f>
         <v>498500</v>
       </c>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="13">
+      <c r="Q17" s="17"/>
+      <c r="R17" s="12">
         <v>7507900</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="12">
         <v>3424000</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="12">
         <v>4083900</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="12">
         <v>2845022</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="12">
         <v>378937</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A18" s="12">
+    <row r="18" spans="1:22">
+      <c r="A18" s="11">
         <v>2020</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5494000</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <f>ROUND((10809*366), -3)</f>
         <v>3956000</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <f>ROUND((4201*366), -3)</f>
         <v>1538000</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.27994175464142701</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3131000</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <f>ROUND((6844*366), -3)</f>
         <v>2505000</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>626000</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>0.2</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="14">
         <v>3950</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <f>HK_MSW_recycled[[#This Row],[G@C recyclables collection volume (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>2.5682704811443432E-3</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <f>9+22</f>
         <v>31</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <v>9</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="12">
         <v>22</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="12">
         <v>0</v>
       </c>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="13">
+      <c r="P18" s="22"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="12">
         <v>7481000</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="12">
         <v>3416500</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="12">
         <v>4064500</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="12">
         <v>2675793</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V18" s="12">
         <v>357679</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A19" s="12">
+    <row r="19" spans="1:22">
+      <c r="A19" s="11">
         <v>2021</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5987000</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <f>ROUND((11358*365), -3)</f>
         <v>4146000</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <f>ROUND((5044*365), -3)</f>
         <v>1841000</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.30749958242859526</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3190000</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <f>ROUND((6992*365), -3)</f>
         <v>2552000</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>638000</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>0.2</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="14">
         <v>14400</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <f>HK_MSW_recycled[[#This Row],[G@C recyclables collection volume (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>7.8218359587180885E-3</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <f>33+100</f>
         <v>133</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <v>11</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="12">
         <v>22</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="12">
         <v>100</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="12">
         <v>3800000</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="12">
         <v>120000</v>
       </c>
-      <c r="R19" s="13">
+      <c r="R19" s="12">
         <v>7413100</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="12">
         <v>3382300</v>
       </c>
-      <c r="T19" s="13">
+      <c r="T19" s="12">
         <v>4030800</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="12">
         <v>2867740</v>
       </c>
-      <c r="V19" s="13">
+      <c r="V19" s="12">
         <v>386848</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A20" s="12">
+    <row r="20" spans="1:22">
+      <c r="A20" s="11">
         <v>2022</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5975000</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <f>ROUND((11128*365), -3)</f>
         <v>4062000</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <f>ROUND((5241*365), -3)</f>
         <v>1913000</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.3201673640167364</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3101000</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <f>ROUND((6797*365), -3)</f>
         <v>2481000</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>620000</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>0.2</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="14">
         <v>20300</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <f>HK_MSW_recycled[[#This Row],[G@C recyclables collection volume (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>1.0611604809200209E-2</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <f>HK_MSW_recycled[[#This Row],[Number of G@C station]]+HK_MSW_recycled[[#This Row],[Number of G@C store]]+HK_MSW_recycled[[#This Row],[Number of G@C spots]]</f>
         <v>163</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <v>11</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="12">
         <v>32</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="12">
         <v>120</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="12">
         <v>5690000</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="12">
         <v>240000</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="12">
         <v>7346100</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="12">
         <v>3354500</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="12">
         <v>3991600</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="12">
         <v>2827009</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V20" s="12">
         <v>384831</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A21" s="12">
+    <row r="21" spans="1:22">
+      <c r="A21" s="11">
         <v>2023</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5942000</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <f>ROUND((10884*365), -3)</f>
         <v>3973000</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <f>ROUND((1968500), -3)</f>
         <v>1969000</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
         <v>0.33136990912150793</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
         <v>3110000</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <f t="shared" ref="G21" si="0">ROUND((6731*365), -3)</f>
         <v>2457000</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <f>ROUND(HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]/(1-HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]])*HK_MSW_recycled[[#This Row],[HK total domestic waste recycling rate]], -3)</f>
         <v>653000</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <v>0.21</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="14">
         <v>26900</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="15">
         <f>HK_MSW_recycled[[#This Row],[G@C recyclables collection volume (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>1.3661757237176232E-2</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="12">
         <f>HK_MSW_recycled[[#This Row],[Number of G@C station]]+HK_MSW_recycled[[#This Row],[Number of G@C store]]+HK_MSW_recycled[[#This Row],[Number of G@C spots]]</f>
         <v>175</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <v>11</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="12">
         <v>34</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="12">
         <v>130</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="12">
         <v>7110000</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="12">
         <v>500000</v>
       </c>
-      <c r="R21" s="13">
+      <c r="R21" s="12">
         <v>7536100</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="12">
         <v>3435200</v>
       </c>
-      <c r="T21" s="13">
+      <c r="T21" s="12">
         <v>4100900</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U21" s="12">
         <v>2983408</v>
       </c>
-      <c r="V21" s="13">
+      <c r="V21" s="12">
         <v>395882</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A22" s="12">
+    <row r="22" spans="1:22">
+      <c r="A22" s="11">
         <v>2024</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="13">
+      <c r="B22" s="22"/>
+      <c r="C22" s="12">
         <f>ROUND((10510*366), -3)</f>
         <v>3847000</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="15">
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="14">
         <v>41800</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="13">
+      <c r="K22" s="24"/>
+      <c r="L22" s="12">
         <v>630</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <v>12</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="12">
         <v>82</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="12">
         <v>383</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="12">
         <v>12700000</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="12">
         <v>1000000</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="12">
         <v>7524100</v>
       </c>
-      <c r="S22" s="13">
+      <c r="S22" s="12">
         <v>3417900</v>
       </c>
-      <c r="T22" s="13">
+      <c r="T22" s="12">
         <v>4106200</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="12">
         <v>3175094</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="12">
         <v>421990</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A23" s="17">
+    <row r="23" spans="1:22">
+      <c r="A23" s="16">
         <v>2025</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="27">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="26">
         <f>12+82+608+100</f>
         <v>802</v>
       </c>
-      <c r="M23" s="27">
+      <c r="M23" s="26">
         <v>12</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="26">
         <v>84</v>
       </c>
-      <c r="O23" s="27">
+      <c r="O23" s="26">
         <v>601</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="26">
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="25">
         <v>7527500</v>
       </c>
-      <c r="S23" s="26">
+      <c r="S23" s="25">
         <v>3419900</v>
       </c>
-      <c r="T23" s="26">
+      <c r="T23" s="25">
         <v>4107600</v>
       </c>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="B26" t="s">
         <v>3</v>
       </c>
@@ -3152,21 +3155,21 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.796875" customWidth="1"/>
-    <col min="3" max="3" width="12.73046875" customWidth="1"/>
-    <col min="4" max="4" width="12.46484375" customWidth="1"/>
-    <col min="5" max="5" width="12.265625" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.53125" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="49.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3189,9 +3192,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9">
         <f>3300000+2430000</f>
@@ -3201,14 +3204,14 @@
         <f>3300000+2430000</f>
         <v>5730000</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="9">
         <f>2690000+3350000</f>
@@ -3218,29 +3221,29 @@
         <f>2690000+3350000</f>
         <v>6040000</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="1">
         <f>4220000+3610000+4690000+3980000+990000</f>
         <v>17490000</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="1">
         <f>4220000+3610000+4690000+3980000+990000</f>
         <v>17490000</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3252,12 +3255,12 @@
         <f>4760000+3910000+4270000+3460000+4700000+2100000+770000</f>
         <v>23970000</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3267,12 +3270,12 @@
       <c r="C6" s="1">
         <v>31000000</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3287,10 +3290,10 @@
         <v>110000000</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3305,10 +3308,10 @@
         <v>174000000</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>3280000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3355,7 +3358,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>10250000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -3404,6 +3407,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3416,18 +3420,18 @@
   <dimension ref="A1:CI22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:87" ht="15">
       <c r="A1" s="5" t="s">
         <v>42</v>
       </c>
@@ -3486,7 +3490,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:87" ht="16">
       <c r="A2" s="4">
         <v>2004</v>
       </c>
@@ -3509,7 +3513,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:87" ht="16">
       <c r="A3" s="4">
         <v>2005</v>
       </c>
@@ -3600,7 +3604,7 @@
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
     </row>
-    <row r="4" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:87" ht="16">
       <c r="A4" s="4">
         <v>2006</v>
       </c>
@@ -3623,7 +3627,7 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:87" ht="16">
       <c r="A5" s="4">
         <v>2007</v>
       </c>
@@ -3646,7 +3650,7 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:87" ht="16">
       <c r="A6" s="4">
         <v>2008</v>
       </c>
@@ -3669,7 +3673,7 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:87" ht="16">
       <c r="A7" s="4">
         <v>2009</v>
       </c>
@@ -3692,7 +3696,7 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:87" ht="16">
       <c r="A8" s="4">
         <v>2011</v>
       </c>
@@ -3715,7 +3719,7 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:87" ht="16">
       <c r="A9" s="4">
         <v>2012</v>
       </c>
@@ -3738,7 +3742,7 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:87" ht="16">
       <c r="A10" s="4">
         <v>2013</v>
       </c>
@@ -3761,7 +3765,7 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:87" ht="16">
       <c r="A11" s="4">
         <v>2014</v>
       </c>
@@ -3784,7 +3788,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:87" ht="16">
       <c r="A12" s="4">
         <v>2015</v>
       </c>
@@ -3807,7 +3811,7 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:87" ht="16">
       <c r="A13" s="4">
         <v>2016</v>
       </c>
@@ -3830,7 +3834,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:87" ht="16">
       <c r="A14" s="4">
         <v>2017</v>
       </c>
@@ -3853,7 +3857,7 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:87" ht="16">
       <c r="A15" s="4">
         <v>2018</v>
       </c>
@@ -3876,7 +3880,7 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:87" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:87" ht="16">
       <c r="A16" s="4">
         <v>2019</v>
       </c>
@@ -3899,7 +3903,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" ht="16">
       <c r="A17" s="4">
         <v>2020</v>
       </c>
@@ -3922,7 +3926,7 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" ht="16">
       <c r="A18" s="4">
         <v>2021</v>
       </c>
@@ -3945,7 +3949,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" ht="16">
       <c r="A19" s="4">
         <v>2022</v>
       </c>
@@ -4022,7 +4026,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" ht="16">
       <c r="A20" s="4">
         <v>2023</v>
       </c>
@@ -4099,7 +4103,7 @@
         <v>235900</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" ht="16">
       <c r="A21" s="4">
         <v>2024</v>
       </c>
@@ -4176,7 +4180,7 @@
         <v>243200</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" ht="16">
       <c r="A22" s="4">
         <v>2025</v>
       </c>
@@ -4254,6 +4258,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
+++ b/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DF6E57-C26B-3F4A-A8A0-E22E12BADFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BC9D51-D1AE-4B4A-8BB7-82D2093D24F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" activeTab="1" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="HK MSW Volume and Recycling Rat" sheetId="2" r:id="rId1"/>
@@ -61,163 +61,166 @@
     <t>HK total MSW generated (tonnes)</t>
   </si>
   <si>
+    <t>G@C total amount of visiting</t>
+  </si>
+  <si>
+    <t>HK total domestic waste generated (tonnes)</t>
+  </si>
+  <si>
+    <t>HK total domestic waste disposed (tonnes)</t>
+  </si>
+  <si>
+    <t>HK total domestic waste recycled (tonnes)</t>
+  </si>
+  <si>
+    <t>HK total domestic waste recycling rate</t>
+  </si>
+  <si>
+    <t>GREEN$ ePIS total registered user</t>
+  </si>
+  <si>
+    <t>2024-25</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>2020-21</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>並沒有載列覆蓋率如何計算</t>
+  </si>
+  <si>
+    <t>Number of G@C collection points</t>
+  </si>
+  <si>
+    <t>0 - 4</t>
+  </si>
+  <si>
+    <t>80 - 84</t>
+  </si>
+  <si>
+    <t>75 - 79</t>
+  </si>
+  <si>
+    <t>70 - 74</t>
+  </si>
+  <si>
+    <t>65 - 69</t>
+  </si>
+  <si>
+    <t>60 - 64</t>
+  </si>
+  <si>
+    <t>55 - 59</t>
+  </si>
+  <si>
+    <t>50 - 54</t>
+  </si>
+  <si>
+    <t>45 - 49</t>
+  </si>
+  <si>
+    <t>40 - 44</t>
+  </si>
+  <si>
+    <t>35 - 39</t>
+  </si>
+  <si>
+    <t>30 - 34</t>
+  </si>
+  <si>
+    <t>25 - 29</t>
+  </si>
+  <si>
+    <t>5 - 9</t>
+  </si>
+  <si>
+    <t>10 - 14</t>
+  </si>
+  <si>
+    <t>15 - 19</t>
+  </si>
+  <si>
+    <t>20 - 24</t>
+  </si>
+  <si>
+    <t>Year (mid)</t>
+  </si>
+  <si>
+    <t>≥ 85</t>
+  </si>
+  <si>
+    <t>2025-26 (budget)</t>
+  </si>
+  <si>
+    <t>G@C store rental cost</t>
+  </si>
+  <si>
+    <t>G@C station total operating cost</t>
+  </si>
+  <si>
+    <t>G@C store total operating cost</t>
+  </si>
+  <si>
+    <t>Number of G@C station</t>
+  </si>
+  <si>
+    <t>Number of G@C store</t>
+  </si>
+  <si>
+    <t>Number of G@C spots</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>GREEN$ total gift procurement cost</t>
+  </si>
+  <si>
+    <t>GREEN$ ePIS total operating cost</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>HK total population (mid-year)</t>
+  </si>
+  <si>
+    <t>Male population (mid-year)</t>
+  </si>
+  <si>
+    <t>Female population (mid-year)</t>
+  </si>
+  <si>
+    <t>HK GDP per capita</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G@C total operating cost</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>G@C share of HK total MSW recycling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G@C recyclables collection volume (tonnes)</t>
-  </si>
-  <si>
-    <t>G@C total amount of visiting</t>
-  </si>
-  <si>
-    <t>HK total domestic waste generated (tonnes)</t>
-  </si>
-  <si>
-    <t>HK total domestic waste disposed (tonnes)</t>
-  </si>
-  <si>
-    <t>HK total domestic waste recycled (tonnes)</t>
-  </si>
-  <si>
-    <t>HK total domestic waste recycling rate</t>
-  </si>
-  <si>
-    <t>G@C total operating cost</t>
-  </si>
-  <si>
-    <t>GREEN$ ePIS total registered user</t>
-  </si>
-  <si>
-    <t>2024-25</t>
-  </si>
-  <si>
-    <t>2023-24</t>
-  </si>
-  <si>
-    <t>2022-23</t>
-  </si>
-  <si>
-    <t>2021-22</t>
-  </si>
-  <si>
-    <t>2020-21</t>
-  </si>
-  <si>
-    <t>2019-20</t>
-  </si>
-  <si>
-    <t>2018-19</t>
-  </si>
-  <si>
-    <t>並沒有載列覆蓋率如何計算</t>
-  </si>
-  <si>
-    <t>Number of G@C collection points</t>
-  </si>
-  <si>
-    <t>0 - 4</t>
-  </si>
-  <si>
-    <t>80 - 84</t>
-  </si>
-  <si>
-    <t>75 - 79</t>
-  </si>
-  <si>
-    <t>70 - 74</t>
-  </si>
-  <si>
-    <t>65 - 69</t>
-  </si>
-  <si>
-    <t>60 - 64</t>
-  </si>
-  <si>
-    <t>55 - 59</t>
-  </si>
-  <si>
-    <t>50 - 54</t>
-  </si>
-  <si>
-    <t>45 - 49</t>
-  </si>
-  <si>
-    <t>40 - 44</t>
-  </si>
-  <si>
-    <t>35 - 39</t>
-  </si>
-  <si>
-    <t>30 - 34</t>
-  </si>
-  <si>
-    <t>25 - 29</t>
-  </si>
-  <si>
-    <t>5 - 9</t>
-  </si>
-  <si>
-    <t>10 - 14</t>
-  </si>
-  <si>
-    <t>15 - 19</t>
-  </si>
-  <si>
-    <t>20 - 24</t>
-  </si>
-  <si>
-    <t>Year (mid)</t>
-  </si>
-  <si>
-    <t>≥ 85</t>
-  </si>
-  <si>
-    <t>2025-26 (budget)</t>
-  </si>
-  <si>
-    <t>G@C store rental cost</t>
-  </si>
-  <si>
-    <t>G@C station total operating cost</t>
-  </si>
-  <si>
-    <t>G@C store total operating cost</t>
-  </si>
-  <si>
-    <t>Number of G@C station</t>
-  </si>
-  <si>
-    <t>Number of G@C store</t>
-  </si>
-  <si>
-    <t>Number of G@C spots</t>
-  </si>
-  <si>
-    <t>2017-18</t>
-  </si>
-  <si>
-    <t>GREEN$ total gift procurement cost</t>
-  </si>
-  <si>
-    <t>GREEN$ ePIS total operating cost</t>
-  </si>
-  <si>
-    <t>2016-17</t>
-  </si>
-  <si>
-    <t>2015-16</t>
-  </si>
-  <si>
-    <t>HK total population (mid-year)</t>
-  </si>
-  <si>
-    <t>Male population (mid-year)</t>
-  </si>
-  <si>
-    <t>Female population (mid-year)</t>
-  </si>
-  <si>
-    <t>HK GDP per capita</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +233,7 @@
     <numFmt numFmtId="177" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="178" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +278,14 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -328,11 +339,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -372,9 +384,16 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{D948AE7C-2F01-43B5-A859-166431145FCF}"/>
   </cellStyles>
   <dxfs count="55">
@@ -1620,8 +1639,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B23"/>
+    <sheetView zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1669,55 +1688,55 @@
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="R1" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -3131,20 +3150,24 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{355F6246-0BB7-894D-8BFE-90A8663D6961}"/>
+    <hyperlink ref="J1" r:id="rId2" xr:uid="{8E8A2300-0977-D14B-B416-E49C4C5C16F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
   <ignoredErrors>
     <ignoredError sqref="G3 G4:G20" calculatedColumn="1"/>
     <ignoredError sqref="K13:K15" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3154,8 +3177,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3173,28 +3196,28 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
+      <c r="B1" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="9">
         <f>3300000+2430000</f>
@@ -3211,7 +3234,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="9">
         <f>2690000+3350000</f>
@@ -3228,7 +3251,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1">
         <f>4220000+3610000+4690000+3980000+990000</f>
@@ -3245,7 +3268,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <f>4760000+3910000+4270000+3460000+4700000+2100000+770000</f>
@@ -3262,7 +3285,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>31000000</v>
@@ -3277,7 +3300,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <f>GreenCommunity[[#This Row],[G@C station total operating cost]]+GreenCommunity[[#This Row],[G@C store total operating cost]]</f>
@@ -3295,7 +3318,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <f>GreenCommunity[[#This Row],[G@C station total operating cost]]+GreenCommunity[[#This Row],[G@C store total operating cost]]</f>
@@ -3313,7 +3336,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <f>GreenCommunity[[#This Row],[G@C station total operating cost]]+GreenCommunity[[#This Row],[G@C store total operating cost]]</f>
@@ -3337,7 +3360,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <f>GreenCommunity[[#This Row],[G@C station total operating cost]]+GreenCommunity[[#This Row],[G@C store total operating cost]]</f>
@@ -3360,7 +3383,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <f>GreenCommunity[[#This Row],[G@C station total operating cost]]+GreenCommunity[[#This Row],[G@C store total operating cost]]</f>
@@ -3385,7 +3408,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1">
         <f>GreenCommunity[[#This Row],[G@C station total operating cost]]+GreenCommunity[[#This Row],[G@C store total operating cost]]</f>
@@ -3408,9 +3431,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{D250B14A-3CC2-7748-B003-E6004DC11BB7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3433,61 +3459,61 @@
   <sheetData>
     <row r="1" spans="1:87" ht="15">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:87" ht="16">

--- a/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
+++ b/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BC9D51-D1AE-4B4A-8BB7-82D2093D24F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65620C1-BA10-5F4E-BBA4-363A39E77FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" activeTab="1" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="HK MSW Volume and Recycling Rat" sheetId="2" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>HK total MSW disposed (tonnes)</t>
   </si>
   <si>
-    <t>HK total MSW recycled (tonnes)</t>
-  </si>
-  <si>
     <t>HK total MSW generated (tonnes)</t>
   </si>
   <si>
@@ -221,6 +218,10 @@
   </si>
   <si>
     <t>G@C recyclables collection volume (tonnes)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK total MSW recycled (tonnes)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1639,8 +1640,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1676,67 +1677,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="R1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="U1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -3150,7 +3151,7 @@
         <v>3</v>
       </c>
       <c r="P26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +3178,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -3197,27 +3198,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="9">
         <f>3300000+2430000</f>
@@ -3234,7 +3235,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="9">
         <f>2690000+3350000</f>
@@ -3251,7 +3252,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1">
         <f>4220000+3610000+4690000+3980000+990000</f>
@@ -3268,7 +3269,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <f>4760000+3910000+4270000+3460000+4700000+2100000+770000</f>
@@ -3285,7 +3286,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>31000000</v>
@@ -3300,7 +3301,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <f>GreenCommunity[[#This Row],[G@C station total operating cost]]+GreenCommunity[[#This Row],[G@C store total operating cost]]</f>
@@ -3318,7 +3319,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <f>GreenCommunity[[#This Row],[G@C station total operating cost]]+GreenCommunity[[#This Row],[G@C store total operating cost]]</f>
@@ -3336,7 +3337,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <f>GreenCommunity[[#This Row],[G@C station total operating cost]]+GreenCommunity[[#This Row],[G@C store total operating cost]]</f>
@@ -3360,7 +3361,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <f>GreenCommunity[[#This Row],[G@C station total operating cost]]+GreenCommunity[[#This Row],[G@C store total operating cost]]</f>
@@ -3383,7 +3384,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <f>GreenCommunity[[#This Row],[G@C station total operating cost]]+GreenCommunity[[#This Row],[G@C store total operating cost]]</f>
@@ -3408,7 +3409,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1">
         <f>GreenCommunity[[#This Row],[G@C station total operating cost]]+GreenCommunity[[#This Row],[G@C store total operating cost]]</f>
@@ -3459,61 +3460,61 @@
   <sheetData>
     <row r="1" spans="1:87" ht="15">
       <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:87" ht="16">

--- a/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
+++ b/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65620C1-BA10-5F4E-BBA4-363A39E77FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9F1135-C6DA-744A-9F85-428178D6F07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="HK MSW Volume and Recycling Rat" sheetId="2" r:id="rId1"/>
     <sheet name="G@C Recyclables Collection Volu" sheetId="6" r:id="rId2"/>
     <sheet name="HK population by age grp" sheetId="7" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1237,6 +1240,26 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="HK MSW Volume and Recycling Rat"/>
+      <sheetName val="G@C Recyclables Collection Volu"/>
+      <sheetName val="General Stats_G@C_clean-2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1640,8 +1663,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1745,7 +1768,7 @@
         <v>2004</v>
       </c>
       <c r="B2" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
+        <f>[1]!HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>5704000</v>
       </c>
       <c r="C2" s="12">
@@ -1793,7 +1816,7 @@
         <v>2005</v>
       </c>
       <c r="B3" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
+        <f>[1]!HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>6017000</v>
       </c>
       <c r="C3" s="12">
@@ -1851,7 +1874,7 @@
         <v>2006</v>
       </c>
       <c r="B4" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
+        <f>[1]!HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>6228000</v>
       </c>
       <c r="C4" s="12">
@@ -1909,7 +1932,7 @@
         <v>2007</v>
       </c>
       <c r="B5" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
+        <f>[1]!HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>6163000</v>
       </c>
       <c r="C5" s="12">
@@ -1967,7 +1990,7 @@
         <v>2008</v>
       </c>
       <c r="B6" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
+        <f>[1]!HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
         <v>6445000</v>
       </c>
       <c r="C6" s="12">
@@ -2024,20 +2047,20 @@
       <c r="A7" s="11">
         <v>2009</v>
       </c>
-      <c r="B7" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
-        <v>6452000</v>
+      <c r="B7" s="1">
+        <f>ROUND(6452600,-3)</f>
+        <v>6453000</v>
       </c>
       <c r="C7" s="12">
-        <f>ROUND((8963*365), -3)</f>
-        <v>3271000</v>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
+        <v>3272000</v>
       </c>
       <c r="D7" s="12">
         <v>3181000</v>
       </c>
       <c r="E7" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
-        <v>0.49302541847489151</v>
+        <v>0.49294901596156826</v>
       </c>
       <c r="F7" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
@@ -2082,12 +2105,12 @@
       <c r="A8" s="11">
         <v>2010</v>
       </c>
-      <c r="B8" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
+      <c r="B8" s="1">
+        <f>ROUND(6930100,-3)</f>
         <v>6930000</v>
       </c>
       <c r="C8" s="12">
-        <f>ROUND((9114*365), -3)</f>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
         <v>3327000</v>
       </c>
       <c r="D8" s="12">
@@ -2140,12 +2163,12 @@
       <c r="A9" s="11">
         <v>2011</v>
       </c>
-      <c r="B9" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
+      <c r="B9" s="1">
+        <f>ROUND(6302800,-3)</f>
         <v>6303000</v>
       </c>
       <c r="C9" s="12">
-        <f>ROUND((8996*365), -3)</f>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
         <v>3284000</v>
       </c>
       <c r="D9" s="12">
@@ -2199,12 +2222,12 @@
       <c r="A10" s="11">
         <v>2012</v>
       </c>
-      <c r="B10" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
+      <c r="B10" s="1">
+        <f>ROUND(5558500,-3)</f>
         <v>5559000</v>
       </c>
       <c r="C10" s="12">
-        <f>ROUND((9278*366), -3)</f>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
         <v>3396000</v>
       </c>
       <c r="D10" s="12">
@@ -2258,13 +2281,13 @@
       <c r="A11" s="11">
         <v>2013</v>
       </c>
-      <c r="B11" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
-        <v>5494000</v>
+      <c r="B11" s="1">
+        <f>ROUND(5493200,-3)</f>
+        <v>5493000</v>
       </c>
       <c r="C11" s="12">
-        <f>ROUND((9547*365), -3)</f>
-        <v>3485000</v>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
+        <v>3484000</v>
       </c>
       <c r="D11" s="12">
         <f>ROUND((2008700), -3)</f>
@@ -2272,7 +2295,7 @@
       </c>
       <c r="E11" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
-        <v>0.36567164179104478</v>
+        <v>0.36573821227016201</v>
       </c>
       <c r="F11" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
@@ -2317,13 +2340,13 @@
       <c r="A12" s="11">
         <v>2014</v>
       </c>
-      <c r="B12" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
-        <v>5623000</v>
+      <c r="B12" s="1">
+        <f>ROUND(5623600,-3)</f>
+        <v>5624000</v>
       </c>
       <c r="C12" s="12">
-        <f>ROUND((9782*365), -3)</f>
-        <v>3570000</v>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
+        <v>3571000</v>
       </c>
       <c r="D12" s="12">
         <f>ROUND((2053200), -3)</f>
@@ -2331,7 +2354,7 @@
       </c>
       <c r="E12" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
-        <v>0.36510759381113284</v>
+        <v>0.36504267425320058</v>
       </c>
       <c r="F12" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
@@ -2376,13 +2399,13 @@
       <c r="A13" s="11">
         <v>2015</v>
       </c>
-      <c r="B13" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
-        <v>5620000</v>
+      <c r="B13" s="1">
+        <f>ROUND(5740700,-3)</f>
+        <v>5741000</v>
       </c>
       <c r="C13" s="12">
-        <f>ROUND((10159*365), -3)</f>
-        <v>3708000</v>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
+        <v>3829000</v>
       </c>
       <c r="D13" s="12">
         <f>ROUND((1912300), -3)</f>
@@ -2390,7 +2413,7 @@
       </c>
       <c r="E13" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
-        <v>0.34021352313167258</v>
+        <v>0.33304302386343843</v>
       </c>
       <c r="F13" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
@@ -2451,13 +2474,13 @@
       <c r="A14" s="11">
         <v>2016</v>
       </c>
-      <c r="B14" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
-        <v>5819000</v>
+      <c r="B14" s="1">
+        <f>ROUND(5698800,-3)</f>
+        <v>5699000</v>
       </c>
       <c r="C14" s="12">
-        <f>ROUND((10345*366), -3)</f>
-        <v>3786000</v>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
+        <v>3666000</v>
       </c>
       <c r="D14" s="12">
         <f>ROUND((2032800), -3)</f>
@@ -2465,7 +2488,7 @@
       </c>
       <c r="E14" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
-        <v>0.34937274445781064</v>
+        <v>0.35672925074574485</v>
       </c>
       <c r="F14" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
@@ -2527,13 +2550,13 @@
       <c r="A15" s="11">
         <v>2017</v>
       </c>
-      <c r="B15" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
-        <v>5749000</v>
+      <c r="B15" s="1">
+        <f>ROUND(5748200,-3)</f>
+        <v>5748000</v>
       </c>
       <c r="C15" s="12">
-        <f>ROUND((10733*365), -3)</f>
-        <v>3918000</v>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
+        <v>3917000</v>
       </c>
       <c r="D15" s="12">
         <f>ROUND((1830600), -3)</f>
@@ -2541,7 +2564,7 @@
       </c>
       <c r="E15" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
-        <v>0.31849017220386155</v>
+        <v>0.31854558107167713</v>
       </c>
       <c r="F15" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
@@ -2603,12 +2626,12 @@
       <c r="A16" s="11">
         <v>2018</v>
       </c>
-      <c r="B16" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
+      <c r="B16" s="1">
+        <f>ROUND(5948700,-3)</f>
         <v>5949000</v>
       </c>
       <c r="C16" s="12">
-        <f>ROUND((11428*365), -3)</f>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
         <v>4171000</v>
       </c>
       <c r="D16" s="12">
@@ -2677,12 +2700,12 @@
       <c r="A17" s="11">
         <v>2019</v>
       </c>
-      <c r="B17" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
+      <c r="B17" s="1">
+        <f>ROUND(5674700,-3)</f>
         <v>5675000</v>
       </c>
       <c r="C17" s="12">
-        <f>ROUND((11057*365), -3)</f>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
         <v>4036000</v>
       </c>
       <c r="D17" s="12">
@@ -2752,12 +2775,12 @@
       <c r="A18" s="11">
         <v>2020</v>
       </c>
-      <c r="B18" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
+      <c r="B18" s="1">
+        <f>ROUND(5493700,-3)</f>
         <v>5494000</v>
       </c>
       <c r="C18" s="12">
-        <f>ROUND((10809*366), -3)</f>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
         <v>3956000</v>
       </c>
       <c r="D18" s="12">
@@ -2825,12 +2848,12 @@
       <c r="A19" s="11">
         <v>2021</v>
       </c>
-      <c r="B19" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
+      <c r="B19" s="1">
+        <f>ROUND(5986500,-3)</f>
         <v>5987000</v>
       </c>
       <c r="C19" s="12">
-        <f>ROUND((11358*365), -3)</f>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
         <v>4146000</v>
       </c>
       <c r="D19" s="12">
@@ -2902,12 +2925,12 @@
       <c r="A20" s="11">
         <v>2022</v>
       </c>
-      <c r="B20" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
+      <c r="B20" s="1">
+        <f>ROUND(5974700,-3)</f>
         <v>5975000</v>
       </c>
       <c r="C20" s="12">
-        <f>ROUND((11128*365), -3)</f>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
         <v>4062000</v>
       </c>
       <c r="D20" s="12">
@@ -2979,13 +3002,13 @@
       <c r="A21" s="11">
         <v>2023</v>
       </c>
-      <c r="B21" s="12">
-        <f>HK_MSW_recycled[[#This Row],[HK total MSW disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]</f>
-        <v>5942000</v>
+      <c r="B21" s="1">
+        <f>ROUND(5941200,-3)</f>
+        <v>5941000</v>
       </c>
       <c r="C21" s="12">
-        <f>ROUND((10884*365), -3)</f>
-        <v>3973000</v>
+        <f>ROUND(([1]!HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]-[1]!HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]), -3)</f>
+        <v>3972000</v>
       </c>
       <c r="D21" s="12">
         <f>ROUND((1968500), -3)</f>
@@ -2993,7 +3016,7 @@
       </c>
       <c r="E21" s="13">
         <f>HK_MSW_recycled[[#This Row],[HK total MSW recycled (tonnes)]]/HK_MSW_recycled[[#This Row],[HK total MSW generated (tonnes)]]</f>
-        <v>0.33136990912150793</v>
+        <v>0.33142568591146271</v>
       </c>
       <c r="F21" s="12">
         <f>HK_MSW_recycled[[#This Row],[HK total domestic waste disposed (tonnes)]]+HK_MSW_recycled[[#This Row],[HK total domestic waste recycled (tonnes)]]</f>
@@ -3058,7 +3081,6 @@
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="12">
-        <f>ROUND((10510*366), -3)</f>
         <v>3847000</v>
       </c>
       <c r="D22" s="22"/>

--- a/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
+++ b/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9F1135-C6DA-744A-9F85-428178D6F07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2000C9E4-D5AE-4740-A151-8BDAE16385D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="HK MSW Volume and Recycling Rat" sheetId="2" r:id="rId1"/>
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R23"/>
+      <selection activeCell="J23" sqref="J1:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3201,7 +3201,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3458,6 +3458,7 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{D250B14A-3CC2-7748-B003-E6004DC11BB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
+++ b/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2000C9E4-D5AE-4740-A151-8BDAE16385D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB674D0-C8CB-2A44-8E8C-0B4996B9F327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
   </bookViews>
@@ -1663,8 +1663,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J23" sqref="J1:J23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
+++ b/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB674D0-C8CB-2A44-8E8C-0B4996B9F327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6497D2-6907-924E-9FE2-C58988A35F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" activeTab="1" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="HK MSW Volume and Recycling Rat" sheetId="2" r:id="rId1"/>
@@ -1663,8 +1663,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3200,8 +3200,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
+++ b/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6497D2-6907-924E-9FE2-C58988A35F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72722817-6ECD-0A41-93E9-5640A69342D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" activeTab="1" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="HK MSW Volume and Recycling Rat" sheetId="2" r:id="rId1"/>
@@ -1663,8 +1663,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3200,8 +3200,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G1:G12"/>
+    <sheetView zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
+++ b/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72722817-6ECD-0A41-93E9-5640A69342D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E01C38-8109-0B43-9DBC-757C6855B26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
   </bookViews>
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="E23" sqref="E1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
+++ b/Green@Community_DataAnalysis/General Stats_G@C_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/Desktop/Green-Community_DataAnalysis/Green@Community_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E01C38-8109-0B43-9DBC-757C6855B26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4DE7E9-ED8B-6F4E-8089-C33BAADCD503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" activeTab="1" xr2:uid="{A0A820B5-DA86-4E1B-B6C8-66C6896BAAAC}"/>
   </bookViews>
   <sheets>
     <sheet name="HK MSW Volume and Recycling Rat" sheetId="2" r:id="rId1"/>
@@ -1663,8 +1663,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E1:E23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J23" sqref="J1:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3200,8 +3200,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
